--- a/data/trans_orig/P14B99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B99-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5A94E1-0D7D-4E49-95EA-8007884FB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C26A5B-4955-4DB1-9664-3A7205FF0CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2187ACF0-45F3-4045-8B72-E7DC5DB56687}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B366EE2-28E8-4B9E-B608-427386EFAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314BA063-CD8D-40FB-AEA3-2CFFD1A2418E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0508129-DF37-4942-873B-7E923F7E5E59}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14B99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B99-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C26A5B-4955-4DB1-9664-3A7205FF0CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C09EB8-3C1F-49C1-A8D3-3AF4F7D6ECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B366EE2-28E8-4B9E-B608-427386EFAF42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3A6EEEF-C7F1-4FA1-BF5A-D62921D94384}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="23">
   <si>
-    <t>Población cuya otra enfermedad le limita en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población cuya otra enfermedad le limita en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0508129-DF37-4942-873B-7E923F7E5E59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CA46F7-6A6A-4D3D-B890-E40C8EF15A46}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
